--- a/sales_data.xlsx
+++ b/sales_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\sales-prediction-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEB4D03-0DDC-4072-A9CF-7587C893A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B6D8A1-FF8D-46DB-9657-187D25AFC344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,18 +412,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
